--- a/StockingProblemProject/Testes/Problema1/testes_tamanho_populacao/statistic_average_fitness_avaliado_graficos.xlsx
+++ b/StockingProblemProject/Testes/Problema1/testes_tamanho_populacao/statistic_average_fitness_avaliado_graficos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruna Leitão\Desktop\Escola\IA\IAProject_StockingProblem\StockingProblemProject\Testes\Problema1\testes_tam_populacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itandmore/Documents/GitHub/IAProject_StockingProblem/StockingProblemProject/Testes/Problema1/testes_tamanho_populacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{217699EB-7F48-4458-8277-12308FD0D2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7F474C-76A6-934C-8F26-D415E6D94427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness_avali" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,12 +598,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3052,22 +3052,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.83203125" style="4" customWidth="1"/>
     <col min="15" max="15" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>200</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>200</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>200</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>200</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>150</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>284.02</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>150</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>284.02</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>150</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>284.02</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>150</v>
       </c>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>150</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>284.04000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>200</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>284.06</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="4" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="4" customFormat="1" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3508,7 +3508,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>100</v>
       </c>
@@ -3546,11 +3546,11 @@
       <c r="N13" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>100</v>
       </c>
@@ -3579,20 +3579,20 @@
       <c r="J14" s="2">
         <v>0.38157568056677799</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>284.04000000000002</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>1.8936000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>200</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>1.4203E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>150</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>1.2623110999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>100</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>1.2623110999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>100</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>9.4673329999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>100</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>9.4673329999999997E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>100</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>9.4666669999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>200</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>9.4666669999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>200</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>50</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="Q23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>200</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>0.53814496188294803</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>150</v>
       </c>
@@ -4031,14 +4031,14 @@
       <c r="J25" s="2">
         <v>0.72553428588868096</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>50</v>
       </c>
@@ -4067,12 +4067,12 @@
       <c r="J26" s="2">
         <v>0.82194890352138095</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>150</v>
       </c>
@@ -4101,12 +4101,12 @@
       <c r="J27" s="2">
         <v>0.7</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>50</v>
       </c>
@@ -4135,12 +4135,12 @@
       <c r="J28" s="2">
         <v>0.98061205377050098</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>200</v>
       </c>
@@ -4169,12 +4169,12 @@
       <c r="J29" s="2">
         <v>0.78892331693263995</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>100</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0.871779788708134</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>50</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>1.01370607179793</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>100</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>0.95268042910516404</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>50</v>
       </c>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>150</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>0.89465076985380199</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>100</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>0.84852813742385702</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>50</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>1.0675204916065999</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>150</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>0.96767763227223502</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>200</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>0.95268042910516404</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>100</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>0.996192752432982</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>50</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>1.2335315156087401</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>50</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>1.4483093592185301</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>150</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>1.1034491379306901</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>50</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>1.3452137376640101</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>50</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>1.3891004283348201</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>100</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>1.113552872566</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>200</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>1.39269522868429</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>150</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>1.3624977064200801</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>50</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>1.6193825983997701</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>100</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>1.53635933296869</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>50</v>
       </c>
